--- a/lect-1/数据.xlsx
+++ b/lect-1/数据.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="平均值与标准差" sheetId="1" r:id="rId1"/>
+    <sheet name="百分位参考值" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>v1</t>
   </si>
@@ -119,12 +120,28 @@
     <t>left == right</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Hg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cumulat_f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>percentile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +170,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -171,12 +196,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -195,11 +223,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="18">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -213,23 +248,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -379,6 +398,25 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -448,22 +486,2405 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>百分位参考值!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>percentile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>百分位参考值!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>百分位参考值!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.15957446808510639</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38652482269503546</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72695035460992907</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86170212765957444</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93262411347517726</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97163120567375882</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98936170212765961</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99645390070921991</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="-27"/>
+        <c:axId val="365181472"/>
+        <c:axId val="365180912"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="365181472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365180912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="365180912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365181472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>百分位参考值!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cumulat_f</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>百分位参考值!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>百分位参考值!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>282</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="-27"/>
+        <c:axId val="370908864"/>
+        <c:axId val="370909424"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="370908864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="370909424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="370909424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="282"/>
+          <c:min val="250"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="370908864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接连接符 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5082540" y="4358640"/>
+          <a:ext cx="464820" cy="586740"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>339969</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>11723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>187569</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>11723</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直接连接符 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5087815" y="4917831"/>
+          <a:ext cx="457200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>181708</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>181708</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>23446</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接连接符 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5539154" y="4360985"/>
+          <a:ext cx="0" cy="568569"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>275493</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>11723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>58616</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>64477</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="文本框 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5632939" y="4554415"/>
+          <a:ext cx="392723" cy="234462"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>20</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>404447</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>64477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>187570</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>117232</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="文本框 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5152293" y="4970585"/>
+          <a:ext cx="392723" cy="234462"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>580293</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>82062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>580293</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>23447</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直接连接符 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5328139" y="4624754"/>
+          <a:ext cx="0" cy="304801"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>532601</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>78331</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>315724</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>131085</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="文本框 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4668183" y="4667649"/>
+          <a:ext cx="392723" cy="236327"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>l</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>297074</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>126821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>80197</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>179576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="文本框 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5042256" y="4348994"/>
+          <a:ext cx="392723" cy="236327"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>h</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>493436</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>179576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>578427</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直接箭头连接符 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5238618" y="4585321"/>
+          <a:ext cx="84991" cy="222206"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>174782</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>34103</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>498763</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>176645</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直接箭头连接符 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4919964" y="4806994"/>
+          <a:ext cx="323981" cy="142542"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E6" totalsRowCount="1" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:E6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E6" totalsRowCount="1" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:E5"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="v1" dataDxfId="12" totalsRowDxfId="13"/>
-    <tableColumn id="8" name="v2" totalsRowLabel="平均值" dataDxfId="10" totalsRowDxfId="11">
+    <tableColumn id="1" name="v1" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="8" name="v2" totalsRowLabel="平均值" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>表1[[#This Row],[v1]]+0</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="ave" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="9">
+    <tableColumn id="3" name="ave" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>AVERAGE(表1[v2])</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(表1[v2])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="xi-xmean" totalsRowLabel="sum of d^2" dataDxfId="6" totalsRowDxfId="7">
+    <tableColumn id="4" name="xi-xmean" totalsRowLabel="sum of d^2" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>表1[[#This Row],[v2]]-表1[[#This Row],[ave]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="d^2" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="5">
+    <tableColumn id="5" name="d^2" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>表1[[#This Row],[xi-xmean]]^2</calculatedColumnFormula>
       <totalsRowFormula>SUM(表1[d^2])</totalsRowFormula>
     </tableColumn>
@@ -479,17 +2900,34 @@
     <tableColumn id="1" name="xi">
       <calculatedColumnFormula>RANDBETWEEN(1,99)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="mean" dataDxfId="3">
+    <tableColumn id="2" name="mean" dataDxfId="5">
       <calculatedColumnFormula>AVERAGE(表2[xi])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="xi-mean" dataDxfId="2">
+    <tableColumn id="3" name="xi-mean" dataDxfId="4">
       <calculatedColumnFormula>表2[[#This Row],[xi]]-表2[[#This Row],[mean]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="(xi-mean)^2" dataDxfId="1">
+    <tableColumn id="4" name="(xi-mean)^2" dataDxfId="3">
       <calculatedColumnFormula>表2[[#This Row],[xi-mean]]^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="xi^2" dataDxfId="0">
+    <tableColumn id="7" name="xi^2" dataDxfId="2">
       <calculatedColumnFormula>表2[xi]^2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:D10" totalsRowShown="0">
+  <autoFilter ref="A1:D10"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Hg"/>
+    <tableColumn id="2" name="freq"/>
+    <tableColumn id="3" name="cumulat_f" dataDxfId="1">
+      <calculatedColumnFormula>SUM($B$2:INDIRECT("b"&amp;ROW()))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="percentile" dataDxfId="0" dataCellStyle="百分比">
+      <calculatedColumnFormula>表3[[#This Row],[cumulat_f]]/SUM(表3[freq])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -761,7 +3199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
@@ -830,23 +3268,23 @@
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H18" ca="1" si="0">RANDBETWEEN(1,99)</f>
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="I2">
         <f ca="1">AVERAGE(表2[xi])</f>
-        <v>56.294117647058826</v>
+        <v>50.058823529411768</v>
       </c>
       <c r="J2">
         <f ca="1">表2[[#This Row],[xi]]-表2[[#This Row],[mean]]</f>
-        <v>41.705882352941174</v>
+        <v>-28.058823529411768</v>
       </c>
       <c r="K2">
         <f ca="1">表2[[#This Row],[xi-mean]]^2</f>
-        <v>1739.3806228373701</v>
+        <v>787.29757785467143</v>
       </c>
       <c r="L2" s="5">
         <f ca="1">表2[xi]^2</f>
-        <v>9604</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -871,23 +3309,23 @@
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="I3">
         <f ca="1">AVERAGE(表2[xi])</f>
-        <v>56.294117647058826</v>
+        <v>50.058823529411768</v>
       </c>
       <c r="J3">
         <f ca="1">表2[[#This Row],[xi]]-表2[[#This Row],[mean]]</f>
-        <v>-12.294117647058826</v>
+        <v>46.941176470588232</v>
       </c>
       <c r="K3">
         <f ca="1">表2[[#This Row],[xi-mean]]^2</f>
-        <v>151.14532871972324</v>
+        <v>2203.4740484429062</v>
       </c>
       <c r="L3" s="5">
         <f ca="1">表2[xi]^2</f>
-        <v>1936</v>
+        <v>9409</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -912,23 +3350,23 @@
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="I4">
         <f ca="1">AVERAGE(表2[xi])</f>
-        <v>56.294117647058826</v>
+        <v>50.058823529411768</v>
       </c>
       <c r="J4">
         <f ca="1">表2[[#This Row],[xi]]-表2[[#This Row],[mean]]</f>
-        <v>29.705882352941174</v>
+        <v>1.941176470588232</v>
       </c>
       <c r="K4">
         <f ca="1">表2[[#This Row],[xi-mean]]^2</f>
-        <v>882.43944636678191</v>
+        <v>3.7681660899653848</v>
       </c>
       <c r="L4" s="5">
         <f ca="1">表2[xi]^2</f>
-        <v>7396</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -953,23 +3391,23 @@
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I5">
         <f ca="1">AVERAGE(表2[xi])</f>
-        <v>56.294117647058826</v>
+        <v>50.058823529411768</v>
       </c>
       <c r="J5">
         <f ca="1">表2[[#This Row],[xi]]-表2[[#This Row],[mean]]</f>
-        <v>-9.294117647058826</v>
+        <v>6.941176470588232</v>
       </c>
       <c r="K5">
         <f ca="1">表2[[#This Row],[xi-mean]]^2</f>
-        <v>86.380622837370282</v>
+        <v>48.179930795847703</v>
       </c>
       <c r="L5" s="5">
         <f ca="1">表2[xi]^2</f>
-        <v>2209</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -990,23 +3428,23 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="I6">
         <f ca="1">AVERAGE(表2[xi])</f>
-        <v>56.294117647058826</v>
+        <v>50.058823529411768</v>
       </c>
       <c r="J6">
         <f ca="1">表2[[#This Row],[xi]]-表2[[#This Row],[mean]]</f>
-        <v>9.705882352941174</v>
+        <v>-22.058823529411768</v>
       </c>
       <c r="K6">
         <f ca="1">表2[[#This Row],[xi-mean]]^2</f>
-        <v>94.204152249134893</v>
+        <v>486.59169550173027</v>
       </c>
       <c r="L6" s="5">
         <f ca="1">表2[xi]^2</f>
-        <v>4356</v>
+        <v>784</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1019,23 +3457,23 @@
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="I7">
         <f ca="1">AVERAGE(表2[xi])</f>
-        <v>56.294117647058826</v>
+        <v>50.058823529411768</v>
       </c>
       <c r="J7">
         <f ca="1">表2[[#This Row],[xi]]-表2[[#This Row],[mean]]</f>
-        <v>30.705882352941174</v>
+        <v>-4.058823529411768</v>
       </c>
       <c r="K7">
         <f ca="1">表2[[#This Row],[xi-mean]]^2</f>
-        <v>942.85121107266423</v>
+        <v>16.4740484429066</v>
       </c>
       <c r="L7" s="5">
         <f ca="1">表2[xi]^2</f>
-        <v>7569</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1048,23 +3486,23 @@
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="I8">
         <f ca="1">AVERAGE(表2[xi])</f>
-        <v>56.294117647058826</v>
+        <v>50.058823529411768</v>
       </c>
       <c r="J8">
         <f ca="1">表2[[#This Row],[xi]]-表2[[#This Row],[mean]]</f>
-        <v>-28.294117647058826</v>
+        <v>22.941176470588232</v>
       </c>
       <c r="K8">
         <f ca="1">表2[[#This Row],[xi-mean]]^2</f>
-        <v>800.55709342560567</v>
+        <v>526.29757785467109</v>
       </c>
       <c r="L8" s="5">
         <f ca="1">表2[xi]^2</f>
-        <v>784</v>
+        <v>5329</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1077,221 +3515,221 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="I9">
         <f ca="1">AVERAGE(表2[xi])</f>
-        <v>56.294117647058826</v>
+        <v>50.058823529411768</v>
       </c>
       <c r="J9">
         <f ca="1">表2[[#This Row],[xi]]-表2[[#This Row],[mean]]</f>
-        <v>29.705882352941174</v>
+        <v>0.94117647058823195</v>
       </c>
       <c r="K9">
         <f ca="1">表2[[#This Row],[xi-mean]]^2</f>
-        <v>882.43944636678191</v>
+        <v>0.88581314878892103</v>
       </c>
       <c r="L9" s="5">
         <f ca="1">表2[xi]^2</f>
-        <v>7396</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="I10">
         <f ca="1">AVERAGE(表2[xi])</f>
-        <v>56.294117647058826</v>
+        <v>50.058823529411768</v>
       </c>
       <c r="J10">
         <f ca="1">表2[[#This Row],[xi]]-表2[[#This Row],[mean]]</f>
-        <v>-52.294117647058826</v>
+        <v>-1.058823529411768</v>
       </c>
       <c r="K10">
         <f ca="1">表2[[#This Row],[xi-mean]]^2</f>
-        <v>2734.6747404844295</v>
+        <v>1.1211072664359933</v>
       </c>
       <c r="L10" s="5">
         <f ca="1">表2[xi]^2</f>
-        <v>16</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I11">
         <f ca="1">AVERAGE(表2[xi])</f>
-        <v>56.294117647058826</v>
+        <v>50.058823529411768</v>
       </c>
       <c r="J11">
         <f ca="1">表2[[#This Row],[xi]]-表2[[#This Row],[mean]]</f>
-        <v>-40.294117647058826</v>
+        <v>-38.058823529411768</v>
       </c>
       <c r="K11">
         <f ca="1">表2[[#This Row],[xi-mean]]^2</f>
-        <v>1623.6159169550176</v>
+        <v>1448.4740484429069</v>
       </c>
       <c r="L11" s="5">
         <f ca="1">表2[xi]^2</f>
-        <v>256</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="I12">
         <f ca="1">AVERAGE(表2[xi])</f>
-        <v>56.294117647058826</v>
+        <v>50.058823529411768</v>
       </c>
       <c r="J12">
         <f ca="1">表2[[#This Row],[xi]]-表2[[#This Row],[mean]]</f>
-        <v>-17.294117647058826</v>
+        <v>-39.058823529411768</v>
       </c>
       <c r="K12">
         <f ca="1">表2[[#This Row],[xi-mean]]^2</f>
-        <v>299.08650519031153</v>
+        <v>1525.5916955017303</v>
       </c>
       <c r="L12" s="5">
         <f ca="1">表2[xi]^2</f>
-        <v>1521</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="I13">
         <f ca="1">AVERAGE(表2[xi])</f>
-        <v>56.294117647058826</v>
+        <v>50.058823529411768</v>
       </c>
       <c r="J13">
         <f ca="1">表2[[#This Row],[xi]]-表2[[#This Row],[mean]]</f>
-        <v>29.705882352941174</v>
+        <v>15.941176470588232</v>
       </c>
       <c r="K13">
         <f ca="1">表2[[#This Row],[xi-mean]]^2</f>
-        <v>882.43944636678191</v>
+        <v>254.12110726643587</v>
       </c>
       <c r="L13" s="5">
         <f ca="1">表2[xi]^2</f>
-        <v>7396</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I14">
         <f ca="1">AVERAGE(表2[xi])</f>
-        <v>56.294117647058826</v>
+        <v>50.058823529411768</v>
       </c>
       <c r="J14">
         <f ca="1">表2[[#This Row],[xi]]-表2[[#This Row],[mean]]</f>
-        <v>39.705882352941174</v>
+        <v>33.941176470588232</v>
       </c>
       <c r="K14">
         <f ca="1">表2[[#This Row],[xi-mean]]^2</f>
-        <v>1576.5570934256054</v>
+        <v>1152.0034602076123</v>
       </c>
       <c r="L14" s="5">
         <f ca="1">表2[xi]^2</f>
-        <v>9216</v>
+        <v>7056</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="I15">
         <f ca="1">AVERAGE(表2[xi])</f>
-        <v>56.294117647058826</v>
+        <v>50.058823529411768</v>
       </c>
       <c r="J15">
         <f ca="1">表2[[#This Row],[xi]]-表2[[#This Row],[mean]]</f>
-        <v>-4.294117647058826</v>
+        <v>-30.058823529411768</v>
       </c>
       <c r="K15">
         <f ca="1">表2[[#This Row],[xi-mean]]^2</f>
-        <v>18.439446366782029</v>
+        <v>903.5328719723185</v>
       </c>
       <c r="L15" s="5">
         <f ca="1">表2[xi]^2</f>
-        <v>2704</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="I16">
         <f ca="1">AVERAGE(表2[xi])</f>
-        <v>56.294117647058826</v>
+        <v>50.058823529411768</v>
       </c>
       <c r="J16">
         <f ca="1">表2[[#This Row],[xi]]-表2[[#This Row],[mean]]</f>
-        <v>-21.294117647058826</v>
+        <v>15.941176470588232</v>
       </c>
       <c r="K16">
         <f ca="1">表2[[#This Row],[xi-mean]]^2</f>
-        <v>453.43944636678214</v>
+        <v>254.12110726643587</v>
       </c>
       <c r="L16" s="5">
         <f ca="1">表2[xi]^2</f>
-        <v>1225</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="17" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H17">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="I17">
         <f ca="1">AVERAGE(表2[xi])</f>
-        <v>56.294117647058826</v>
+        <v>50.058823529411768</v>
       </c>
       <c r="J17">
         <f ca="1">表2[[#This Row],[xi]]-表2[[#This Row],[mean]]</f>
-        <v>-19.294117647058826</v>
+        <v>7.941176470588232</v>
       </c>
       <c r="K17">
         <f ca="1">表2[[#This Row],[xi-mean]]^2</f>
-        <v>372.26297577854683</v>
+        <v>63.062283737024167</v>
       </c>
       <c r="L17" s="5">
         <f ca="1">表2[xi]^2</f>
-        <v>1369</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="18" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H18">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I18">
         <f ca="1">AVERAGE(表2[xi])</f>
-        <v>56.294117647058826</v>
+        <v>50.058823529411768</v>
       </c>
       <c r="J18">
         <f ca="1">表2[[#This Row],[xi]]-表2[[#This Row],[mean]]</f>
-        <v>-6.294117647058826</v>
+        <v>8.941176470588232</v>
       </c>
       <c r="K18">
         <f ca="1">表2[[#This Row],[xi-mean]]^2</f>
-        <v>39.615916955017333</v>
+        <v>79.944636678200638</v>
       </c>
       <c r="L18" s="5">
         <f ca="1">表2[xi]^2</f>
-        <v>2500</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="20" spans="8:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1309,7 +3747,7 @@
       </c>
       <c r="K21">
         <f ca="1">SUM(表2[(xi-mean)^2])</f>
-        <v>13579.529411764703</v>
+        <v>9754.9411764705892</v>
       </c>
     </row>
     <row r="22" spans="8:12" x14ac:dyDescent="0.25">
@@ -1318,7 +3756,7 @@
       </c>
       <c r="K22">
         <f ca="1">K21/K20</f>
-        <v>798.79584775086482</v>
+        <v>573.82006920415233</v>
       </c>
     </row>
     <row r="24" spans="8:12" x14ac:dyDescent="0.25">
@@ -1327,7 +3765,7 @@
       </c>
       <c r="K24">
         <f ca="1">SUM(表2[xi^2])</f>
-        <v>67453</v>
+        <v>52355</v>
       </c>
     </row>
     <row r="25" spans="8:12" x14ac:dyDescent="0.25">
@@ -1336,7 +3774,7 @@
       </c>
       <c r="K25">
         <f ca="1">K24/K20</f>
-        <v>3967.8235294117649</v>
+        <v>3079.705882352941</v>
       </c>
     </row>
     <row r="26" spans="8:12" x14ac:dyDescent="0.25">
@@ -1345,7 +3783,7 @@
       </c>
       <c r="K26">
         <f ca="1">AVERAGE(表2[xi])^2</f>
-        <v>3169.0276816608998</v>
+        <v>2505.8858131487891</v>
       </c>
     </row>
     <row r="27" spans="8:12" x14ac:dyDescent="0.25">
@@ -1354,7 +3792,7 @@
       </c>
       <c r="K27">
         <f ca="1">K25-K26</f>
-        <v>798.79584775086505</v>
+        <v>573.82006920415188</v>
       </c>
     </row>
     <row r="29" spans="8:12" x14ac:dyDescent="0.25">
@@ -1374,4 +3812,187 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <f ca="1">SUM($B$2:INDIRECT("b"&amp;ROW()))</f>
+        <v>45</v>
+      </c>
+      <c r="D2" s="6">
+        <f ca="1">表3[[#This Row],[cumulat_f]]/SUM(表3[freq])</f>
+        <v>0.15957446808510639</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>64</v>
+      </c>
+      <c r="C3">
+        <f ca="1">SUM($B$2:INDIRECT("b"&amp;ROW()))</f>
+        <v>109</v>
+      </c>
+      <c r="D3" s="6">
+        <f ca="1">表3[[#This Row],[cumulat_f]]/SUM(表3[freq])</f>
+        <v>0.38652482269503546</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>96</v>
+      </c>
+      <c r="C4">
+        <f ca="1">SUM($B$2:INDIRECT("b"&amp;ROW()))</f>
+        <v>205</v>
+      </c>
+      <c r="D4" s="6">
+        <f ca="1">表3[[#This Row],[cumulat_f]]/SUM(表3[freq])</f>
+        <v>0.72695035460992907</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>38</v>
+      </c>
+      <c r="C5">
+        <f ca="1">SUM($B$2:INDIRECT("b"&amp;ROW()))</f>
+        <v>243</v>
+      </c>
+      <c r="D5" s="6">
+        <f ca="1">表3[[#This Row],[cumulat_f]]/SUM(表3[freq])</f>
+        <v>0.86170212765957444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <f ca="1">SUM($B$2:INDIRECT("b"&amp;ROW()))</f>
+        <v>263</v>
+      </c>
+      <c r="D6" s="6">
+        <f ca="1">表3[[#This Row],[cumulat_f]]/SUM(表3[freq])</f>
+        <v>0.93262411347517726</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <f ca="1">SUM($B$2:INDIRECT("b"&amp;ROW()))</f>
+        <v>274</v>
+      </c>
+      <c r="D7" s="6">
+        <f ca="1">表3[[#This Row],[cumulat_f]]/SUM(表3[freq])</f>
+        <v>0.97163120567375882</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>48</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <f ca="1">SUM($B$2:INDIRECT("b"&amp;ROW()))</f>
+        <v>279</v>
+      </c>
+      <c r="D8" s="6">
+        <f ca="1">表3[[#This Row],[cumulat_f]]/SUM(表3[freq])</f>
+        <v>0.98936170212765961</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>56</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <f ca="1">SUM($B$2:INDIRECT("b"&amp;ROW()))</f>
+        <v>281</v>
+      </c>
+      <c r="D9" s="6">
+        <f ca="1">表3[[#This Row],[cumulat_f]]/SUM(表3[freq])</f>
+        <v>0.99645390070921991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>64</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f ca="1">SUM($B$2:INDIRECT("b"&amp;ROW()))</f>
+        <v>282</v>
+      </c>
+      <c r="D10" s="6">
+        <f ca="1">表3[[#This Row],[cumulat_f]]/SUM(表3[freq])</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>